--- a/for_wp/rk-folders.xlsx
+++ b/for_wp/rk-folders.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1980" windowHeight="15600"/>
+    <workbookView windowWidth="28800" windowHeight="13095"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="302">
   <si>
     <t>кровь</t>
   </si>
@@ -184,6 +184,9 @@
     <t>сдать анализ +на сифилис</t>
   </si>
   <si>
+    <t>где можно сдать анализы ребенку</t>
+  </si>
+  <si>
     <t>где можно сдать анализ +на вич</t>
   </si>
   <si>
@@ -211,7 +214,7 @@
     <t>анализ +на вирусы</t>
   </si>
   <si>
-    <t>где можно сдать анализы ребенку</t>
+    <t>сдать общий анализ крови ребенку</t>
   </si>
   <si>
     <t>где сдать анализ +на гепатит</t>
@@ -238,7 +241,7 @@
     <t>вирус папилломы человека анализ</t>
   </si>
   <si>
-    <t>сдать общий анализ крови ребенку</t>
+    <t>сдать анализы +на аллергены ребенку</t>
   </si>
   <si>
     <t>сколько сдавать анализ +на вич</t>
@@ -253,13 +256,16 @@
     <t>анализы +на гормоны</t>
   </si>
   <si>
+    <t>где сдать общий анализ крови</t>
+  </si>
+  <si>
     <t>сдать анализы платно</t>
   </si>
   <si>
     <t>анализ вирус эпштейна</t>
   </si>
   <si>
-    <t>сдать анализы +на аллергены ребенку</t>
+    <t>анализы детям</t>
   </si>
   <si>
     <t>сдать анализ крови +на вич</t>
@@ -274,7 +280,7 @@
     <t>сдать анализы +на гормоны</t>
   </si>
   <si>
-    <t>где сдать общий анализ крови</t>
+    <t>сдать анализ +на группу крови</t>
   </si>
   <si>
     <t>сдать анализы +в ростове +на дону</t>
@@ -283,7 +289,7 @@
     <t>анализ +на вирус герпеса</t>
   </si>
   <si>
-    <t>анализы детям</t>
+    <t>анализ крови +у детей</t>
   </si>
   <si>
     <t>сдать анализы +на вич +и спид</t>
@@ -301,7 +307,7 @@
     <t>анализы +на половые инфекции ростов</t>
   </si>
   <si>
-    <t>сдать анализ +на группу крови</t>
+    <t>где сдать платный анализ крови</t>
   </si>
   <si>
     <t>сдать анализы +на витамины</t>
@@ -310,9 +316,6 @@
     <t>анализ крови +на вирусы</t>
   </si>
   <si>
-    <t>анализ крови +у детей</t>
-  </si>
-  <si>
     <t>анализ +на вич</t>
   </si>
   <si>
@@ -328,7 +331,13 @@
     <t>инфекция половых путей анализ</t>
   </si>
   <si>
-    <t>где сдать платный анализ крови</t>
+    <t>сдать анализ крови антитела</t>
+  </si>
+  <si>
+    <t>сколько стоит сдать анализы</t>
+  </si>
+  <si>
+    <t>анализы ребенку общие</t>
   </si>
   <si>
     <t>анализ вич ростов</t>
@@ -346,13 +355,13 @@
     <t>анализы +на половые болезни</t>
   </si>
   <si>
-    <t>сдать анализ крови антитела</t>
-  </si>
-  <si>
-    <t>сколько стоит сдать анализы</t>
-  </si>
-  <si>
-    <t>анализы ребенку общие</t>
+    <t>сдать анализ крови +на витамины</t>
+  </si>
+  <si>
+    <t>сдать анализ д</t>
+  </si>
+  <si>
+    <t>анализ мочи ребенка</t>
   </si>
   <si>
     <t>анализ +на вич +и гепатит</t>
@@ -367,13 +376,13 @@
     <t>ростов анализ гормонов</t>
   </si>
   <si>
-    <t>сдать анализ крови +на витамины</t>
-  </si>
-  <si>
-    <t>сдать анализ д</t>
-  </si>
-  <si>
-    <t>анализ мочи ребенка</t>
+    <t>сдать анализы кровь +и мочу</t>
+  </si>
+  <si>
+    <t>сдать анализ +на антитела</t>
+  </si>
+  <si>
+    <t>анализы ребенку ростов</t>
   </si>
   <si>
     <t>анализ крови +на вич</t>
@@ -388,13 +397,13 @@
     <t>анализ крови +на гормоны</t>
   </si>
   <si>
-    <t>сдать анализы кровь +и мочу</t>
-  </si>
-  <si>
-    <t>сдать анализ +на антитела</t>
-  </si>
-  <si>
-    <t>анализы ребенку ростов</t>
+    <t>анализ крови</t>
+  </si>
+  <si>
+    <t>сдать анализы +на щитовидную железу</t>
+  </si>
+  <si>
+    <t>общий анализ крови +у детей</t>
   </si>
   <si>
     <t>анализы вич дону</t>
@@ -409,10 +418,13 @@
     <t>анализы +на гормоны ростов +на дону</t>
   </si>
   <si>
-    <t>анализ крови</t>
-  </si>
-  <si>
-    <t>сдать анализы +на щитовидную железу</t>
+    <t>общий анализ крови</t>
+  </si>
+  <si>
+    <t>сдать анализы +на глисты</t>
+  </si>
+  <si>
+    <t>анализы детям ростов +на дону</t>
   </si>
   <si>
     <t>анализ +на вич ростов +на дону</t>
@@ -427,13 +439,13 @@
     <t>анализ +на гормоны цена</t>
   </si>
   <si>
-    <t>общий анализ крови</t>
-  </si>
-  <si>
-    <t>сдать анализы +на глисты</t>
-  </si>
-  <si>
-    <t>общий анализ крови +у детей</t>
+    <t>биохимический анализ крови</t>
+  </si>
+  <si>
+    <t>сдать анализы +на зппп</t>
+  </si>
+  <si>
+    <t>сдать анализы ребенку ростов</t>
   </si>
   <si>
     <t>вич общий анализ</t>
@@ -448,13 +460,10 @@
     <t>анализ +на гормоны +у женщин</t>
   </si>
   <si>
-    <t>биохимический анализ крови</t>
-  </si>
-  <si>
-    <t>сдать анализы +на зппп</t>
-  </si>
-  <si>
-    <t>анализы детям ростов +на дону</t>
+    <t>анализ крови +у женщин</t>
+  </si>
+  <si>
+    <t>сдать анализы недорого</t>
   </si>
   <si>
     <t>анализ +на вич цена</t>
@@ -463,10 +472,10 @@
     <t>сдать анализ мочи ростов +на дону</t>
   </si>
   <si>
-    <t>анализ крови +у женщин</t>
-  </si>
-  <si>
-    <t>сдать анализы недорого</t>
+    <t>сдать анализы +на аллергию</t>
+  </si>
+  <si>
+    <t>сдать анализы ребенку ростов +на дону</t>
   </si>
   <si>
     <t>анализ вич где</t>
@@ -475,28 +484,37 @@
     <t>анализ +на женские гормоны</t>
   </si>
   <si>
-    <t>сдать анализы +на аллергию</t>
-  </si>
-  <si>
-    <t>сдать анализы ребенку ростов</t>
+    <t>анализы крови ростов</t>
+  </si>
+  <si>
+    <t>сдать анализы адреса</t>
+  </si>
+  <si>
+    <t>анализ +на пол ребенка</t>
   </si>
   <si>
     <t>сдать анализы +на вич ростов</t>
   </si>
   <si>
-    <t>анализы крови ростов</t>
-  </si>
-  <si>
-    <t>сдать анализы адреса</t>
+    <t>анализ крови цена</t>
+  </si>
+  <si>
+    <t>где сдать анализы платно</t>
+  </si>
+  <si>
+    <t>анализ +на аллергены +у ребенка</t>
   </si>
   <si>
     <t>где сдать анализ +на вич</t>
   </si>
   <si>
-    <t>анализ крови цена</t>
-  </si>
-  <si>
-    <t>где сдать анализы платно</t>
+    <t>анализ крови дону</t>
+  </si>
+  <si>
+    <t>сдать анализы почки</t>
+  </si>
+  <si>
+    <t>анализ крови детям ростов +на дону</t>
   </si>
   <si>
     <t>анализ +на вич +и сифилис</t>
@@ -505,130 +523,100 @@
     <t>сдача анализов +на гормоны</t>
   </si>
   <si>
-    <t>анализ крови дону</t>
-  </si>
-  <si>
-    <t>сдать анализы почки</t>
-  </si>
-  <si>
-    <t>сдать анализы ребенку ростов +на дону</t>
+    <t>клиника сдать анализы</t>
   </si>
   <si>
     <t>сдать анализ +на гормон ростов</t>
   </si>
   <si>
-    <t>клиника сдать анализы</t>
-  </si>
-  <si>
-    <t>анализ +на пол ребенка</t>
+    <t>анализы сдать лаборатории</t>
   </si>
   <si>
     <t>ростов +на дону сдать анализы гормоны</t>
   </si>
   <si>
-    <t>анализ +на аллергены +у ребенка</t>
+    <t>сдать анализ волос</t>
   </si>
   <si>
     <t>анализ +на гормоны щитовидной цена</t>
   </si>
   <si>
-    <t>анализы сдать лаборатории</t>
-  </si>
-  <si>
-    <t>анализ крови детям ростов +на дону</t>
+    <t>сдать анализ пцр</t>
   </si>
   <si>
     <t>анализ +на гормоны щитовидной железы цена</t>
   </si>
   <si>
-    <t>анализ крови +на пол ребенка</t>
-  </si>
-  <si>
-    <t>щитовидная железа анализы +на гормоны цена</t>
-  </si>
-  <si>
-    <t>сдать анализ волос</t>
+    <t>сдать анализ +на хгч</t>
   </si>
   <si>
     <t>анализ крови +на гормоны щитовидной</t>
   </si>
   <si>
-    <t>сдать анализ пцр</t>
+    <t>где можно сдать платные анализы</t>
   </si>
   <si>
     <t>анализы +на гормоны ростов цена</t>
   </si>
   <si>
-    <t>сдать анализ +на хгч</t>
+    <t>сдать биохимический анализ</t>
   </si>
   <si>
     <t>щитовидная железа анализ крови гормоны</t>
   </si>
   <si>
-    <t>анализ крови +на гормоны железы</t>
-  </si>
-  <si>
-    <t>где можно сдать платные анализы</t>
+    <t>сдать анализ +на железо</t>
   </si>
   <si>
     <t>анализ крови +на гормоны щитовидной железы</t>
   </si>
   <si>
-    <t>сдать биохимический анализ</t>
+    <t>сдать анализы +на заболевания</t>
   </si>
   <si>
     <t>анализ +на гормоны ттг</t>
   </si>
   <si>
-    <t>сдать анализ +на железо</t>
+    <t>сдать анализ +на витамин д</t>
   </si>
   <si>
     <t>щитовидная железа гормоны анализ какие сдать</t>
   </si>
   <si>
-    <t>сдать анализы +на заболевания</t>
+    <t>сдать анализы ростов</t>
   </si>
   <si>
     <t>анализ +на гормоны щитовидной железы какие</t>
   </si>
   <si>
-    <t>сдать анализ +на витамин д</t>
-  </si>
-  <si>
     <t>анализы +на гормоны щитовидной какие</t>
   </si>
   <si>
-    <t>сдать анализы ростов</t>
+    <t>сдать анализ +на впч</t>
+  </si>
+  <si>
+    <t>сдать анализы анонимно</t>
   </si>
   <si>
     <t>инвитро анализы +на гормоны</t>
   </si>
   <si>
-    <t>сдать анализ +на впч</t>
+    <t>сдать анализы +на скрытые</t>
   </si>
   <si>
     <t>анализы после гормонов</t>
   </si>
   <si>
-    <t>анализы +на гормоны щитовидной железы ростов</t>
-  </si>
-  <si>
-    <t>сдать анализы анонимно</t>
+    <t>сдать анализы +на иппп</t>
   </si>
   <si>
     <t>гормоны надпочечников анализы</t>
   </si>
   <si>
-    <t>сдать анализы +на скрытые</t>
+    <t>сдать анализы +при планировании беременности</t>
   </si>
   <si>
     <t>женские гормоны анализы какие</t>
-  </si>
-  <si>
-    <t>сдать анализы +на иппп</t>
-  </si>
-  <si>
-    <t>сдать анализы +при планировании беременности</t>
   </si>
   <si>
     <t>сдать анализ +на сахар</t>
@@ -937,8 +925,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -958,7 +952,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -967,20 +960,349 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -988,13 +1310,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1007,14 +1571,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
+    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
+    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
+    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
+    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
+    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
+    <cellStyle name="Процент" xfId="9" builtinId="5"/>
+    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
+    <cellStyle name="Итого" xfId="11" builtinId="25"/>
+    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
+    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
+    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
+    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
+    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
+    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
+    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
+    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
+    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
+    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
+    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
+    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
+    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
+    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
+    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
+    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1276,33 +1884,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K171"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="52.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="52.8571428571429" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.2857142857143" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.7142857142857" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.8571428571429" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.7142857142857" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.5714285714286" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.1428571428571" style="2" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" customWidth="1"/>
+    <col min="9" max="9" width="35.7142857142857" customWidth="1"/>
+    <col min="10" max="10" width="27.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="18.75">
+    <row r="1" s="1" customFormat="1" ht="18.75" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1324,13 +1932,13 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1482,105 +2090,111 @@
       <c r="D6" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>42</v>
@@ -1588,212 +2202,218 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>19</v>
@@ -1801,30 +2421,33 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>41</v>
@@ -1832,13 +2455,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>30</v>
@@ -1846,802 +2472,763 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="2" t="s">
-        <v>163</v>
-      </c>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="E25" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="E27" s="2" t="s">
-        <v>175</v>
-      </c>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I29" s="2"/>
+        <v>181</v>
+      </c>
       <c r="J29" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="J31" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
       <c r="B32" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="2" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>191</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="J35" s="2"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J37" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="2" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="2:10">
+      <c r="B40" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="J40" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
       <c r="B41" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
       <c r="B42" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
       <c r="B43" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
       <c r="B44" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
       <c r="B45" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
       <c r="B46" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
       <c r="B47" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
       <c r="B48" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="2" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="2" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="2" t="s">
-        <v>229</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="2" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="2" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="2" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="2" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="2" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="2" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="2" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="2" t="s">
-        <v>251</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="2" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="2" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="2" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="2" t="s">
-        <v>255</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="2" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="2" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="2" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="2" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="2" t="s">
-        <v>260</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="2" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="2" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="2" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="2" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="2" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="2" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="2" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="2" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="2" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="2" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="2" t="s">
-        <v>271</v>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="2" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="2" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="2" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="2" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="2" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="2" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="2" t="s">
-        <v>277</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="2" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="2" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="2" t="s">
-        <v>279</v>
+        <v>87</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="2" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="2" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2">
-      <c r="B156" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2">
-      <c r="B157" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2">
-      <c r="B159" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2">
-      <c r="B160" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2">
-      <c r="B164" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2">
-      <c r="B165" s="2" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2">
-      <c r="B166" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2">
-      <c r="B167" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="170" spans="2:2">
-      <c r="B170" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2">
-      <c r="B171" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B48" r:id="rId1"/>
-    <hyperlink ref="B51" r:id="rId2"/>
-    <hyperlink ref="B52" r:id="rId3"/>
-    <hyperlink ref="B53" r:id="rId4"/>
-    <hyperlink ref="B54" r:id="rId5"/>
-    <hyperlink ref="B55" r:id="rId6"/>
-    <hyperlink ref="B56" r:id="rId7"/>
-    <hyperlink ref="B59" r:id="rId8"/>
-    <hyperlink ref="B61" r:id="rId9"/>
-    <hyperlink ref="B62" r:id="rId10"/>
-    <hyperlink ref="B64" r:id="rId11"/>
-    <hyperlink ref="B65" r:id="rId12"/>
-    <hyperlink ref="B66" r:id="rId13"/>
-    <hyperlink ref="B67" r:id="rId14"/>
-    <hyperlink ref="B70" r:id="rId15"/>
-    <hyperlink ref="B72" r:id="rId16"/>
-    <hyperlink ref="B73" r:id="rId17"/>
-    <hyperlink ref="B75" r:id="rId18"/>
-    <hyperlink ref="B77" r:id="rId19"/>
-    <hyperlink ref="B79" r:id="rId20"/>
-    <hyperlink ref="B80" r:id="rId21"/>
-    <hyperlink ref="B81" r:id="rId22"/>
-    <hyperlink ref="B84" r:id="rId23"/>
-    <hyperlink ref="B87" r:id="rId24"/>
-    <hyperlink ref="B89" r:id="rId25"/>
-    <hyperlink ref="B90" r:id="rId26"/>
-    <hyperlink ref="B92" r:id="rId27"/>
-    <hyperlink ref="B94" r:id="rId28"/>
-    <hyperlink ref="B98" r:id="rId29"/>
-    <hyperlink ref="B99" r:id="rId30"/>
-    <hyperlink ref="B100" r:id="rId31"/>
-    <hyperlink ref="B101" r:id="rId32"/>
-    <hyperlink ref="B102" r:id="rId33"/>
-    <hyperlink ref="B107" r:id="rId34"/>
-    <hyperlink ref="B108" r:id="rId35"/>
-    <hyperlink ref="B117" r:id="rId36"/>
-    <hyperlink ref="B119" r:id="rId37"/>
-    <hyperlink ref="B123" r:id="rId38"/>
-    <hyperlink ref="B124" r:id="rId39"/>
-    <hyperlink ref="B125" r:id="rId40"/>
-    <hyperlink ref="B126" r:id="rId41"/>
-    <hyperlink ref="B127" r:id="rId42"/>
-    <hyperlink ref="B129" r:id="rId43"/>
-    <hyperlink ref="B133" r:id="rId44"/>
-    <hyperlink ref="B134" r:id="rId45"/>
-    <hyperlink ref="B135" r:id="rId46"/>
-    <hyperlink ref="B136" r:id="rId47"/>
-    <hyperlink ref="B138" r:id="rId48"/>
-    <hyperlink ref="B139" r:id="rId49"/>
-    <hyperlink ref="B140" r:id="rId50"/>
-    <hyperlink ref="B142" r:id="rId51"/>
-    <hyperlink ref="B143" r:id="rId52"/>
-    <hyperlink ref="B144" r:id="rId53"/>
-    <hyperlink ref="B146" r:id="rId54"/>
-    <hyperlink ref="C4" r:id="rId55"/>
-    <hyperlink ref="H6" r:id="rId56"/>
-    <hyperlink ref="G3" r:id="rId57"/>
-    <hyperlink ref="G4" r:id="rId58"/>
-    <hyperlink ref="G5" r:id="rId59"/>
-    <hyperlink ref="G6" r:id="rId60"/>
-    <hyperlink ref="G7" r:id="rId61"/>
-    <hyperlink ref="G8" r:id="rId62"/>
-    <hyperlink ref="J5" r:id="rId63"/>
-    <hyperlink ref="J6" r:id="rId64"/>
-    <hyperlink ref="E5" r:id="rId65"/>
-    <hyperlink ref="E7" r:id="rId66"/>
-    <hyperlink ref="A6" r:id="rId67"/>
-    <hyperlink ref="A11" r:id="rId68"/>
-    <hyperlink ref="A12" r:id="rId69"/>
-    <hyperlink ref="A13" r:id="rId70"/>
-    <hyperlink ref="G14" r:id="rId71"/>
-    <hyperlink ref="G15" r:id="rId72"/>
-    <hyperlink ref="F3" r:id="rId73"/>
-    <hyperlink ref="F6" r:id="rId74"/>
-    <hyperlink ref="F8" r:id="rId75"/>
-    <hyperlink ref="F9" r:id="rId76"/>
-    <hyperlink ref="A15" r:id="rId77"/>
-    <hyperlink ref="K4" r:id="rId78"/>
-    <hyperlink ref="K5" r:id="rId79"/>
-    <hyperlink ref="J7" r:id="rId80"/>
-    <hyperlink ref="F7" r:id="rId81"/>
+    <hyperlink ref="B43" r:id="rId1" display="где быстро сдать анализы"/>
+    <hyperlink ref="B46" r:id="rId1" display="сдать анализы дешево"/>
+    <hyperlink ref="B47" r:id="rId1" display="сдать анализы +на тестостерон"/>
+    <hyperlink ref="B48" r:id="rId1" display="щитовидная железа анализы нужно сдать"/>
+    <hyperlink ref="B49" r:id="rId1" display="сдать анализы +на рак"/>
+    <hyperlink ref="B50" r:id="rId1" display="сдать анализы +на щитовидку"/>
+    <hyperlink ref="B51" r:id="rId1" display="сдать анализы рядом"/>
+    <hyperlink ref="B53" r:id="rId1" display="сдать медицинские анализы"/>
+    <hyperlink ref="B54" r:id="rId1" display="где сдать анализ мочи"/>
+    <hyperlink ref="B55" r:id="rId1" display="сдать анализ +на пролактин"/>
+    <hyperlink ref="B56" r:id="rId1" display="выпадение волос анализы сдать"/>
+    <hyperlink ref="B57" r:id="rId1" display="сдать анализы платно недорого"/>
+    <hyperlink ref="B58" r:id="rId1" display="сдать анализ +на алкоголь"/>
+    <hyperlink ref="B59" r:id="rId1" display="сдать анализ +на ферритин"/>
+    <hyperlink ref="B61" r:id="rId1" display="сдать анализ +на диабет"/>
+    <hyperlink ref="B62" r:id="rId1" display="где сдать анализы +на гормоны"/>
+    <hyperlink ref="B63" r:id="rId1" display="сдать анализы мазок"/>
+    <hyperlink ref="B64" r:id="rId1" display="сдать анализ +на гемоглобин"/>
+    <hyperlink ref="B65" r:id="rId1" display="сдать анализ +на боррелиоз"/>
+    <hyperlink ref="B67" r:id="rId1" display="где сдать анализы адреса"/>
+    <hyperlink ref="B68" r:id="rId1" display="сдать анализы +на желудок"/>
+    <hyperlink ref="B69" r:id="rId1" display="сдать анализ +на кортизол"/>
+    <hyperlink ref="B72" r:id="rId1" display="можно сдать анализ цена"/>
+    <hyperlink ref="B74" r:id="rId1" display="сдать анализы гинекология"/>
+    <hyperlink ref="B75" r:id="rId1" display="сдать анализы +в ростове +на дону"/>
+    <hyperlink ref="B76" r:id="rId1" display="сдать клинические анализы"/>
+    <hyperlink ref="B77" r:id="rId1" display="сдать анализы стоимость"/>
+    <hyperlink ref="B79" r:id="rId1" display="сдать анализы щитовидной железы +у женщин"/>
+    <hyperlink ref="B82" r:id="rId1" display="сдать анализы +для операции"/>
+    <hyperlink ref="B83" r:id="rId1" display="сдать анализы +на микроэлементы"/>
+    <hyperlink ref="B84" r:id="rId1" display="сдать анализ +на сахарный диабет"/>
+    <hyperlink ref="B85" r:id="rId1" display="сдать анализы +на антибиотики"/>
+    <hyperlink ref="B86" r:id="rId1" display="где можно сдать анализы цены"/>
+    <hyperlink ref="B89" r:id="rId1" display="где сдать общий анализ"/>
+    <hyperlink ref="B90" r:id="rId1" display="сдать анализы адрес цены"/>
+    <hyperlink ref="B96" r:id="rId1" display="сдать анализ папилломы"/>
+    <hyperlink ref="B97" r:id="rId1" display="сдать анализы +на витамины +и микроэлементы"/>
+    <hyperlink ref="B101" r:id="rId1" display="сдать анализ +на хламидии"/>
+    <hyperlink ref="B102" r:id="rId1" display="сдать анализы +на витамины цена"/>
+    <hyperlink ref="B103" r:id="rId1" display="обследование сдать анализы"/>
+    <hyperlink ref="B104" r:id="rId1" display="анализ беременность женщина планирование сдавать"/>
+    <hyperlink ref="B105" r:id="rId1" display="сдать анализ +на креатинин"/>
+    <hyperlink ref="B107" r:id="rId1" display="сдавать анализ 19"/>
+    <hyperlink ref="B110" r:id="rId1" display="волосы выпадают сдать анализы волосы"/>
+    <hyperlink ref="B111" r:id="rId1" display="сдать анализ кожи"/>
+    <hyperlink ref="B112" r:id="rId1" display="сдать анализы +на скрытые инфекции"/>
+    <hyperlink ref="B113" r:id="rId1" display="сдать анализы каких витаминов +не хватает"/>
+    <hyperlink ref="B114" r:id="rId1" display="сдать анализ +на грибок ногтей"/>
+    <hyperlink ref="B115" r:id="rId1" display="адреса где можно сдать анализы"/>
+    <hyperlink ref="B116" r:id="rId1" display="где сдать анализ +на аллергию"/>
+    <hyperlink ref="B118" r:id="rId1" display="сдать анализы суббота"/>
+    <hyperlink ref="B119" r:id="rId1" display="сдать экспресс анализы"/>
+    <hyperlink ref="B120" r:id="rId1" display="витамин д сдать анализ цена"/>
+    <hyperlink ref="B122" r:id="rId1" display="сдать анализы +на паразитов +в организме"/>
+    <hyperlink ref="C4" r:id="rId1" display="где сдать клеща +на анализ"/>
+    <hyperlink ref="H6" r:id="rId1" display="сдать анализы перед беременностью"/>
+    <hyperlink ref="G3" r:id="rId1" display="сдать анализы после коронавируса"/>
+    <hyperlink ref="G4" r:id="rId1" display="где можно сдать анализ +на коронавирус"/>
+    <hyperlink ref="G5" r:id="rId1" display="сделать пцр тест"/>
+    <hyperlink ref="G6" r:id="rId1" display="сделать тест"/>
+    <hyperlink ref="G7" r:id="rId1" display="где сдать анализ пцр"/>
+    <hyperlink ref="G8" r:id="rId1" display="сдать анализы после ковида"/>
+    <hyperlink ref="J5" r:id="rId1" display="сдать анализ крови +на гормоны"/>
+    <hyperlink ref="J6" r:id="rId1" display="где можно сдать анализы +на гормоны"/>
+    <hyperlink ref="E5" r:id="rId1" display="сдать анализы новорожденному"/>
+    <hyperlink ref="E6" r:id="rId1" display="где можно сдать анализы ребенку"/>
+    <hyperlink ref="A6" r:id="rId1" display="анализ крови сдать платно"/>
+    <hyperlink ref="A10" r:id="rId1" display="сдать анализ +на группу крови"/>
+    <hyperlink ref="A11" r:id="rId1" display="где сдать платный анализ крови"/>
+    <hyperlink ref="A12" r:id="rId1" display="сдать анализ крови антитела"/>
+    <hyperlink ref="G14" r:id="rId1" display="где сдать анализ +на коронавирус"/>
+    <hyperlink ref="G15" r:id="rId1" display="сдать анализ +на антитела +к коронавирусу"/>
+    <hyperlink ref="F3" r:id="rId1" display="сдать анализ +на спид"/>
+    <hyperlink ref="F6" r:id="rId1" display="где можно сдать анализ +на вич"/>
+    <hyperlink ref="F8" r:id="rId1" display="сколько сдавать анализ +на вич"/>
+    <hyperlink ref="F9" r:id="rId1" display="сдать анализ крови +на вич"/>
+    <hyperlink ref="A14" r:id="rId1" display="сдать анализы кровь +и мочу"/>
+    <hyperlink ref="K4" r:id="rId1" display="сдать анализы +на половые инфекции"/>
+    <hyperlink ref="K5" r:id="rId1" display="сдать анализ +на герпес"/>
+    <hyperlink ref="J7" r:id="rId1" display="сдать анализы +на гормоны цена"/>
+    <hyperlink ref="F7" r:id="rId1" display="где сдать анализ +на гепатит"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/for_wp/rk-folders.xlsx
+++ b/for_wp/rk-folders.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13095"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="307">
   <si>
     <t>кровь</t>
   </si>
@@ -595,48 +595,66 @@
     <t>сдать анализ +на впч</t>
   </si>
   <si>
+    <t>анализы  гипофиза</t>
+  </si>
+  <si>
     <t>сдать анализы анонимно</t>
   </si>
   <si>
-    <t>инвитро анализы +на гормоны</t>
+    <t>анализы после гормонов</t>
   </si>
   <si>
     <t>сдать анализы +на скрытые</t>
   </si>
   <si>
-    <t>анализы после гормонов</t>
+    <t>гормоны надпочечников анализы</t>
   </si>
   <si>
     <t>сдать анализы +на иппп</t>
   </si>
   <si>
-    <t>гормоны надпочечников анализы</t>
-  </si>
-  <si>
     <t>сдать анализы +при планировании беременности</t>
   </si>
   <si>
-    <t>женские гормоны анализы какие</t>
+    <t>эстроген анализ</t>
   </si>
   <si>
     <t>сдать анализ +на сахар</t>
   </si>
   <si>
+    <t>эстроген анализ цена</t>
+  </si>
+  <si>
     <t>где сдать анализы недорого</t>
   </si>
   <si>
+    <t>эстроген сдать анализ</t>
+  </si>
+  <si>
     <t>сдать анализы центры</t>
   </si>
   <si>
+    <t>анализ +на эстрогены +у женщин</t>
+  </si>
+  <si>
     <t>где быстро сдать анализы</t>
   </si>
   <si>
+    <t>анализ +на метаболиты эстрогенов</t>
+  </si>
+  <si>
     <t>сдать анализы +на онкомаркеры</t>
   </si>
   <si>
+    <t>анализ мочи +на эстрогены</t>
+  </si>
+  <si>
     <t>сдать анализ надпочечники</t>
   </si>
   <si>
+    <t>анализ мочи +на метаболиты эстрогенов</t>
+  </si>
+  <si>
     <t>сдать анализы дешево</t>
   </si>
   <si>
@@ -788,9 +806,6 @@
   </si>
   <si>
     <t>сдать анализы +на витамины +и микроэлементы</t>
-  </si>
-  <si>
-    <t>эстроген сдать анализ</t>
   </si>
   <si>
     <t>где можно сдать анализ мочи</t>
@@ -927,12 +942,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -964,6 +979,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -979,22 +1001,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1008,16 +1022,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,9 +1031,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1039,9 +1045,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1063,13 +1068,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1078,8 +1076,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1101,8 +1100,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1117,7 +1139,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,25 +1181,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,97 +1271,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,19 +1283,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,13 +1301,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1311,17 +1333,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1341,6 +1357,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1352,17 +1379,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1385,15 +1401,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1408,157 +1415,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1571,6 +1593,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1893,7 +1916,7 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2592,216 +2615,233 @@
       <c r="B35" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J35" s="2"/>
+      <c r="J35" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" spans="2:10">
       <c r="B39" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" ht="15.75" spans="2:10">
       <c r="B40" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
+      <c r="J40" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" spans="2:10">
       <c r="B41" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
+        <v>203</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" spans="2:10">
       <c r="B42" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
+        <v>205</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" spans="2:10">
       <c r="B43" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
+        <v>207</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" spans="2:10">
       <c r="B44" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
+        <v>209</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" spans="2:10">
       <c r="B45" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="2:2">
@@ -2811,317 +2851,317 @@
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="2" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="2" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="2" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="139" spans="2:2">
@@ -3131,17 +3171,17 @@
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
